--- a/pt_data.xlsx
+++ b/pt_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aaron\College\CIS_5650\Project3-CUDA-Path-Tracer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1AF6D6-6653-4383-95A3-8BA4C9C0B8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400AF92C-89D7-408C-8F3D-A9BE6C56E8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="384" windowWidth="28416" windowHeight="15840" xr2:uid="{4553A2E4-C722-4C19-BC84-9ABA871B580E}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="19440" windowHeight="11280" xr2:uid="{4553A2E4-C722-4C19-BC84-9ABA871B580E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,9 +603,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>259.79000000000002</c:v>
-                      </c:pt>
                       <c:pt idx="1">
                         <c:v>180.09</c:v>
                       </c:pt>
@@ -631,7 +628,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$1</c15:sqref>
@@ -694,7 +691,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -716,7 +713,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$5</c15:sqref>
@@ -742,7 +739,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$2:$E$5</c15:sqref>
@@ -758,7 +755,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-EDFB-4C36-ADA3-889E651A1850}"/>
                   </c:ext>
@@ -771,7 +768,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$1</c15:sqref>
@@ -834,7 +831,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -856,7 +853,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$5</c15:sqref>
@@ -882,7 +879,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$2:$F$5</c15:sqref>
@@ -907,7 +904,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-EDFB-4C36-ADA3-889E651A1850}"/>
                   </c:ext>
@@ -1311,19 +1308,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$A$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$3:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Cornell Box (5000 samples)</c:v>
+                  <c:v>Polly (500 samples)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Polly (500 samples)</c:v>
+                  <c:v>People (500 samples)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>People (500 samples)</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Robot (100 samples)</c:v>
                 </c:pt>
               </c:strCache>
@@ -1331,20 +1332,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$2:$B$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>79.319999999999993</c:v>
+                  <c:v>96.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.68</c:v>
+                  <c:v>61.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>238.17</c:v>
                 </c:pt>
               </c:numCache>
@@ -1441,45 +1446,51 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$A$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$3:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Cornell Box (5000 samples)</c:v>
+                  <c:v>Polly (500 samples)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Polly (500 samples)</c:v>
+                  <c:v>People (500 samples)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>People (500 samples)</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Robot (100 samples)</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$2:$D$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$3:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>259.79000000000002</c:v>
+                  <c:v>180.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180.09</c:v>
+                  <c:v>184.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>184.66</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>256.81</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1596,23 +1607,23 @@
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$A$5</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>Sheet1!$A$3:$A$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>Cornell Box (5000 samples)</c:v>
+                        <c:v>Polly (500 samples)</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Polly (500 samples)</c:v>
+                        <c:v>People (500 samples)</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>People (500 samples)</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
                         <c:v>Robot (100 samples)</c:v>
                       </c:pt>
                     </c:strCache>
@@ -1622,24 +1633,24 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$C$2:$C$5</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$2:$C$5</c15:sqref>
+                          <c15:sqref>Sheet1!$C$3:$C$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>206.75</c:v>
+                        <c:v>97.9</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>97.9</c:v>
+                        <c:v>66.36</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>66.36</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
                         <c:v>251.15</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1721,7 +1732,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1745,23 +1756,23 @@
                   <c:strRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$A$5</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>Sheet1!$A$3:$A$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>Cornell Box (5000 samples)</c:v>
+                        <c:v>Polly (500 samples)</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Polly (500 samples)</c:v>
+                        <c:v>People (500 samples)</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>People (500 samples)</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
                         <c:v>Robot (100 samples)</c:v>
                       </c:pt>
                     </c:strCache>
@@ -1771,21 +1782,21 @@
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$E$2:$E$5</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$2:$E$5</c15:sqref>
+                          <c15:sqref>Sheet1!$E$3:$E$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>83.19</c:v>
-                      </c:pt>
+                      <c:ptCount val="3"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-F5DF-4E89-80DA-6F10DCA690F0}"/>
                   </c:ext>
@@ -1861,7 +1872,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1885,23 +1896,23 @@
                   <c:strRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$A$5</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>Sheet1!$A$3:$A$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>Cornell Box (5000 samples)</c:v>
+                        <c:v>Polly (500 samples)</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Polly (500 samples)</c:v>
+                        <c:v>People (500 samples)</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>People (500 samples)</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
                         <c:v>Robot (100 samples)</c:v>
                       </c:pt>
                     </c:strCache>
@@ -1911,30 +1922,30 @@
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$F$2:$F$5</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$2:$F$5</c15:sqref>
+                          <c15:sqref>Sheet1!$F$3:$F$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>77.06</c:v>
+                        <c:v>137.01</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>137.01</c:v>
+                        <c:v>158.84</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>158.84</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
                         <c:v>312.73</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-F5DF-4E89-80DA-6F10DCA690F0}"/>
                   </c:ext>
@@ -2464,7 +2475,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
                     <c15:sqref>Sheet1!$A$2:$A$5</c15:sqref>
@@ -2482,7 +2493,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
                     <c15:sqref>Sheet1!$E$2:$E$5</c15:sqref>
@@ -2631,7 +2642,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>Sheet1!$A$2:$A$5</c15:sqref>
@@ -2651,7 +2662,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>Sheet1!$D$2:$D$5</c15:sqref>
@@ -2664,13 +2675,10 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>259.79000000000002</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-6566-4EEE-BC5C-722943BA30AC}"/>
                   </c:ext>
@@ -2710,7 +2718,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>Sheet1!$A$2:$A$5</c15:sqref>
@@ -2730,7 +2738,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>Sheet1!$F$2:$F$5</c15:sqref>
@@ -2749,7 +2757,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-6566-4EEE-BC5C-722943BA30AC}"/>
                   </c:ext>
@@ -3564,7 +3572,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -3622,9 +3630,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>259.79000000000002</c:v>
-                      </c:pt>
                       <c:pt idx="1">
                         <c:v>180.09</c:v>
                       </c:pt>
@@ -3637,7 +3642,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-6F0D-41E4-B7A6-E07F53BC8393}"/>
                   </c:ext>
@@ -3713,7 +3718,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -3777,7 +3782,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-6F0D-41E4-B7A6-E07F53BC8393}"/>
                   </c:ext>
@@ -4610,7 +4615,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>Sheet1!$D$2:$D$5</c15:sqref>
@@ -4623,13 +4628,10 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>259.79000000000002</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-6645-476C-B74C-C877F2380EF2}"/>
                   </c:ext>
@@ -4747,7 +4749,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>Sheet1!$E$2:$E$5</c15:sqref>
@@ -4766,7 +4768,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-6645-476C-B74C-C877F2380EF2}"/>
                   </c:ext>
@@ -4842,7 +4844,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -4884,7 +4886,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>Sheet1!$F$2:$F$5</c15:sqref>
@@ -4903,7 +4905,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-6645-476C-B74C-C877F2380EF2}"/>
                   </c:ext>
@@ -8379,16 +8381,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF221861-E642-46E5-AADA-72C39222B3E7}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8411,7 +8413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -8420,9 +8422,6 @@
       </c>
       <c r="C2">
         <v>206.75</v>
-      </c>
-      <c r="D2">
-        <v>259.79000000000002</v>
       </c>
       <c r="E2">
         <v>83.19</v>
@@ -8434,7 +8433,7 @@
         <v>81.209999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -8451,7 +8450,7 @@
         <v>137.01</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -8468,7 +8467,7 @@
         <v>158.84</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
